--- a/ParserServer/simple.xlsx
+++ b/ParserServer/simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <x:si>
     <x:t>Ссылка</x:t>
   </x:si>
@@ -40,626 +40,638 @@
     <x:t>Описание объявления</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381638/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 32.8м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Дегунино в 13 минутах, Окружная в 3 минутах, Бескудниково в 4 минутах, Дегунино в 10 минутах, Окружная в 28 минутах, Бескудниково в 31 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Бескудниковский район, Бескудниковский б-р., д.16, к.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9150000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33060600 
-Замечательная однокомнатная квартира в Бескудниково.
-Надёжный блочный дом, в котором производился капитальный ремонт.
-В квартиру можно заезжать и жить, полностью готова для проживания.
-Замечательный район который за последние 10 лет превратился в хорошо-развитый спальный район с выгодной инфраструктурой.
-Поликлиники, школы, сады все рядом.
-Отличная доступность до метро Селигерская.
-Отличный вариант кто хочет жить в Москве за доступные деньги.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381634/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 40.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Бескудниково в 12 минутах, Дегунино в 20 минутах, Бескудниково в 3 минутах, Лианозово в 5 минутах, Дегунино в 12 минутах, Лианозово в 32 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Восточное Дегунино район, Дубнинская ул., д.26, к.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11700000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33008789 
-Продаётся квартира в панельном доме по улице Дубнинская 26к3 на 9 этаже 12 этажного дома. 
-В квартире выполнен качественный ремонт. Все инженерные системы были заменены. Имеется кондиционер. Это именно та квартира в которую можно заехать и жить.
- Квартира располагается в отлично развитом спальном районе.
- МЦД Бескудниково расположено в 3 минутах на транспорте и 13 минутах пешком.
- Метро Селигерская находится в 7 минутах на транспорте.
-Школы, детские сады находятся в пешей доступности. Рядом находятся два парка Северные дубки и парк Им. Святослава Фёдорова. В округе огромное количество детских площадок. 
-Поликлиники как детские, так и взрослые находятся в пешей доступности.
-Документы все подготовлены к сделки, свободная продажа.
-Работая с нашим агентством все сделки совершаются грамотными юристами, что гарантирует безопасность сделки на 100%.
-Приходите на просмотры и купите себе надёжную квартиру.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381588/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 61.8м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Левобережная в 6 минутах, Ховрино в 7 минутах, Марк в 8 минутах, Левобережная в 33 минутах, Ховрино в 35 минутах, Марк в 53 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, улица Маршала Федоренко, 2к1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продается 3-х комнатная квартира с лоджией в тихом и спокойном районе Москвы. В пешей доступности станция метро Ховрино.
-Этаж: 7. В доме два лифта и хорошая отделка.
-Общая площадь: 61,8 кв.м
-Планировка: 
-	Уютная кухня 6,5 кв.м, 
-	Просторные комнаты по 13,6 и 11,3 кв.м соответственно  за счет изолированности достигается тишина, можно спокойно и быстро уснуть; 
-	Смежная комната 19,3 кв.м;
-	Лоджия с отделкой (окна выходят во двор);
-	Санузел раздельный.
-Квартира светлая, есть вся мебель для удобства: осталось только заехать!
-Инфраструктура: рядом с домом есть продуктовые магазины, аптеки, салоны красоты и школы. В шаговой доступности торговый центр Discovery. Во дворе оборудованы детские площадки. До метро Ховрино 860 метров. 
-Воздух чистый и есть места для прогулок: с одной стороны дома расположен Химкинский лесопарк, а с другой -  Парк Ангарские пруды. 
-Здесь вы сможете ощутить комфорт и сменить суматошный ритм города на более спокойный, но, если захочется движения  сели в метро и через 15 минут вы уже в центре (а на машине еще быстрее). 
-Квартира юридически и физически свободна. Оперативный показ.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381552/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 38.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Битца в 9 минутах, Красный Строитель в 11 минутах, Покровская в 14 минутах, Красный Строитель в 62 минутах, Битца в 71 минутах, Покровская в 76 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, улица Инессы Арманд, 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9800000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продаётся шикарная однокомнатная квартира с ремонтом! Планировка: кухня 10 метров, изолированная комната 19 метров,совмещенный санузел, большая лоджия. Квартира в хорошем состоянии. Чистый зеленый район, развитая инфраструктура, есть все необходимое для жизни: магазины, аптеки, больницы, поликлиники, торговые центры, пешая доступность до метро! Свободная продажа, ДКП 2017 года, полная стоимость в дкп, ипотека подходит, перепланировок нет, быстрый выход на сделку.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381503/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 67.1м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Битца в 9 минутах, Щербинка в 10 минутах, Красный Строитель в 10 минутах, Щербинка в 62 минутах, Битца в 83 минутах, Красный Строитель в 84 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Изюмская улица, 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13950000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продается двухкомнатная просторная квартира. Комнаты изолированные 22,3 м2 и 16,4 м2,  кухня 11,8 м2, Застекленная лоджия из кухни. Окна в зеленый двор с фонтаном. Чистый красивый подъезд с консьержкой. Документы более 10 лет в собственности, один взрослый собственник. В квартире никто не зарегистрирован. Свободная продажа.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381488/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 48.1м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Косино в 5 минутах, Ухтомская в 8 минутах, Выхино в 13 минутах, Косино в 29 минутах, Выхино в 30 минутах, Ухтомская в 42 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Ферганский проезд, 3к1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Собственник!  
-Продаётся 2-комнатная квартира общей площадью 48,1 кв.м. 2 изолированные комнаты. Одна 18,9 кв.м. с выходом на застекленный балкон. Вторая 12 кв.м. С/у раздельный, кухня 6,2 кв.м. Квартира без обременений, приобреталась без использования мат. капитала, в собственности больше 5 лет, перепланировка не производилась, подходит под ипотеку. Один взрослый собственник. В квартире никто не прописан. Свободная продажа!
- В квартире полы паркет, на кухне плитка, ванна и туалет в плитке. Встроенная кухня с техникой Окна стеклопакеты, натяжные потолки, железные двери.  В коридоре встроенный шкаф в нем стиральная машинка. Чистый подъезд. Во дворе игровые площадки для детей и площадка для занятия спортом, есть парковочные места. 13 мин пешком до метро Юго  Восточная. Хорошо развита инфраструктура. Всё есть, в шаговой доступности для комфортного проживания: сквер, супермаркеты, поликлиники взрослая и детская, аптеки, школы, дет сады, в пешей доступности Кузьминский лесопарк.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381463/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 32.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Электрозаводская в 12 минутах, Яуза в 16 минутах, Северянин в 23 минутах, Яуза в 70 минутах, Северянин в 82 минутах, Электрозаводская в 83 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Открытое шоссе, 25к10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7700000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продается однокомнатная квартира в районе Метрогородок!
-Квартира под ремонт!
-Рядом с домом большой Волшебный лес .
-Во дворе дома школа 1795, 1246, детский сад , библиотека 75, магазин Пятерочка, Дикси.
-До центра 10 минут на общественном транспорте.
-Шаговая доступность до метро, в нескольких минутах от дома остановка общественного транспорта.
-Оперативные показы! 
-Быстрый выход на сделку!
-Свободная продажа!
-Ипотека подходит!
-Окажем помощь в одобрении ипотеки с дальнейшим рефинансированием!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381459/</x:t>
+    <x:t>https://www.cian.ru/sale/flat/278409914/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 39.7м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Сколково в 10 минутах, Сколково в 4 минутах, Солнечная в 5 минутах, Очаково I в 12 минутах, Солнечная в 39 минутах, Очаково I в 41 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Москва, Домостроительная улица, 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15300000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Квартира-евродвушка с очень правильной, эргономичной организацией пространства. Спальня с балконом, кухня-гостиная с зоной отдыха, гардеробная. В квартире сделан евроремонт с использованием дорогих,качественных материалов и техники. 
+Внутренний двор оборудован по принципу двор без машин, во дворе несколько детских и спортивных площадок. На охраняемой территории комплекса оборудован подземный паркинг.
+Прекрасно развитая инфраструктура: магазины, супермаркеты, кафе, салоны красоты, школа и детские сады, центры развития для детей. В пешей доступности фитнес-клуб с бассейном.
+При этом рядом расположен Мещерский заказник, который отлично подойдет для прогулок и отдыха.
+Отличная локация комплекса: в 7 минут пешком станция метро Говорово и станция Мещерская киевского направления. Остановка общественного транспорта рядом с домом.
+Один собственник на основании ДДУ, оперативный показ, быстрый выход на сделку.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409907/</x:t>
   </x:si>
   <x:si>
     <x:t>2-комн. квартира, 66.0м²</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Левобережная в 9 минутах, Химки в 10 минутах, Ховрино в 13 минутах, Ховрино в 30 минутах, Левобережная в 33 минутах, Химки в 48 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Левобережный район, Левобережная ул., д.4, к.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продается просторная, 2к  квартира на 9 этаже в 19 этажном новом доме.
-Общая площадь 66 м2,  кухня 11, санузел раздельный, распашонка, в маленькой комнате есть гардеробная. Застекленный балкон на кухне. В кухне установлен новый кухонный гарнитур. В квартире никто не проживал.
-Чистый  и светлый подъезд,  имеется пассажирский  и грузовой.  Во дворе дома  расположены замечательные детские и спортивные площадки. Парковка внутри жилого комплекса, и по периметру дома.  Развитая инфраструктура: рядом поликлиника, школа, детский сад, магазины, остановки. До метро Беломорская 5 минут пешком..  Свободная  продажа. Документы  готовы.
-Арт. 33058147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381444/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 31.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Электрозаводская в 12 минутах, Яуза в 17 минутах, Северянин в 23 минутах, Яуза в 74 минутах, Электрозаводская в 86 минутах, Северянин в 86 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Открытое шоссе, 29к6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7900000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Однокомнатная квартира с балконом. Балкон застеклён, санузел совмещён. Теплый дом и квартира. Чистый подъезд, хорошие соседи. Дом находится в прекрасном зелёном районе Москвы в пешей доступности (2 минуты) Национальный парк "Лосиный остров". Всегда чистый и свежий воздух, возможность прогулок, занятий спортом. Развитая инфраструктура: детские сады, школы, магазины, кафе, всё необходимое для комфортного проживания или сдачи в аренду. Один взрослый собственник. ДКП. Свободная продажа.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381428/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 69.5м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Москва (Павелецкий вокзал) в 18 минутах, Москва (Павелецкий вокзал) в 6 минутах, Серп и молот в 6 минутах, Москва Товарная (Курская) в 6 минутах, Серп и молот в 51 минутах, Москва Товарная (Курская) в 54 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Жуков проезд, д. 21Б</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31500000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID 6292, Григорий. Видовой апартамент на 7 этаже 10-этажного клубного дома в ЖК "Level Павелецкая". Подробнее об объекте читайте ниже.
-Продается 2-комн. апартамент 69,5 кв.м. с двумя изолированными комнатами и кухней гостиной 20,8 кв.м., детская 15,4 кв.м., взрослая мастер-спальня 14,6 кв.м., два сан.узла. В апартаменте потолок высотой 3 метра. Во всех пространствах установлена встроенная мебель и техника. Широкоформатные окна, а в детской и в кухне-гостиной по 2 таких окна. 
-Жилой комплекс оборудован подземным паркингом, есть возможность купить или арендовать машиноместо. Свой закрытый двор с детской площадкой, зоной отдыха и Wi-Fi. На первом этаже все помещения коммерческие, в них уже работают кафе и магазины, парикмахерская. 
-Локация в ближайшее время обретет качественно новый облик. Напротив нашего клубного дома достроят бизнес центр премиум уровня Taller. В нескольких сотен метрах построят визуальную и эстетически очень привлекательную доминанту района - ЖК "High Life". Уже сейчас начали ремонт Жуковского путепровода. А также ввели в эксплуатацию и запустили один из крупнейших в Москве торговых центров - Павелецкая плаза, у входа в метро Павелецкая. 
-Образование и транспортная доступность. В 5 минутах от дома школа лицей 1553. До метро Павелецкая 15 минут пешком.
-Правовой статус: 1 собственник, свободная продажа.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381258/</x:t>
+    <x:t xml:space="preserve">Москва (Белорусский вокзал) в 4 минутах, Беговая в 7 минутах, Москва (Савёловский вокзал) в 13 минутах, Москва (Белорусский вокзал) в 27 минутах, Москва (Савёловский вокзал) в 41 минутах, Беговая в 42 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Большая Садовая улица, 5к1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ультрамодные апартаменты для современного молодого человека в центре Москвы в одном из лучших ЖК "Пекинские Сады". Видовая квартира с окнами в пол и потолками 3,2 м снабжена всем, о чем только вы можете мечтать, включая офис и гардеробную. С помощью экрана вы легко можете превратить стеклянную перегородку в спальне в непроницаемую стену. Встроенная кухня не занимает много места и легко прячется в шкаф по воле хозяина. Квартира оборудована системой "умный дом" и даже "умный унитаз"))). Левитирующая кровать и вся встроенная техника останется в пользовании у нового хозяина, кто в состоянии оценить уникальность этого объекта. В пешей доступности все лучшие музеи и театры Москвы, с крыши можно любоваться не только восходами и закатами, но и парадами, проводимыми в городе. Показы проводим по вторникам и субботам.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409856/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 38.6м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Марк в 3 минутах, Лианозово в 5 минутах, Новодачная в 7 минутах, Марк в 23 минутах, Лианозово в 34 минутах, Новодачная в 39 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Челобитьевское шоссе, 12к2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9900000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Квартира в собственности более 3-х лет. Один взрослый собственник. Прописанных в квартире нет. 
+Красивый район, рядом школа, детские сады, парк, ТРЦ Рио, бухта. Скоро открытие метро в пешей доступности (5 минут до м. Физтех) 
+Квартира с ремонтом от застройщика, серьёзных вложений не требует. Сантехника, электрика в рабочем состоянии. Счетчики поверены. 
+С парковками проблем нет, в подъезде круглосуточно консьерж, видеонаблюдение.
+Сторона солнечная, выход окон во двор, на ЮГ. Есть лоджия 2 кв.м. 
+Все необходимые документы для продажи собираются оперативно.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409718/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 52.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Москва (Курский вокзал) в 13 минутах, Москва (Курский вокзал) в 5 минутах, Москва (Казанский вокзал) в 5 минутах, Москва-Каланчёвская в 5 минутах, Москва (Казанский вокзал) в 30 минутах, Москва-Каланчёвская в 35 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Подсосенский переулок, 8с2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-х комнатная квартира. Линейной планировки. Общей площадью - 52 кв. метра. Комнаты изолированные, с видом из окон на благоустроенный двор. Кухня-6 метров. Санузел раздельный. Высота потолков - 3.3 метра.
+Квартира с ремонтом. 
+Соседи в доме доброжелательные.
+Чистый, ухоженный подъезд. Тихий зелёный двор. 
+Парковка во дворе за шлагбаумом.
+Один взрослый собственник.
+Продажа свободная.. 
+Код объекта:  327743.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409714/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 42.4м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Покровская в 12 минутах, Покровская в 2 минутах, Красный Строитель в 2 минутах, Чертаново в 5 минутах, Красный Строитель в 22 минутах, Чертаново в 52 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Дорожная улица, 7к1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11800000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свободная продажа квартиры с двумя изолированными комнатами и большой лоджией. Окна с великолепным видом на Покровский парк с прудами. Тихая и уютная квартира. Окна пластиковые. Лоджия утеплена.
+В доме проведён капитальный ремонт.
+Рядом детская площадка, детские сады и школы, магазины. Рядом детская и взрослая поликлиники.
+7 минут размеренным шагом до станции МЦД Покровское курского направления. 15 минут пешком до метро Пражская и Улица Академика Янгеля, транспортом 4 минуты.
+В квартире никто не прописан. Без обременений.
+АГЕНТАМ И АГЕНСТВАМ НЕ ЗВОНИТЬ!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409678/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 38.9м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Щербинка в 9 минутах, Битца в 15 минутах, Силикатная в 16 минутах, Щербинка в 58 минутах, Силикатная в 116 минутах, Битца в 131 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Южнобутовская улица, 86к2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается квартира у парка.В шаговой доступности метро.Малоэтажный дом.Окна выходят во двор.Квартира требует ремонта.Полная стоимость в договоре.Один взрослый собственник.Документы наследство по завещанию 2022 года.Близкие родственники.Свободная продажа.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409641/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 70.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Москва Товарная (Курская) в 11 минутах, Серп и молот в 14 минутах, Калитники в 15 минутах, Москва Товарная (Курская) в 2 минутах, Серп и молот в 2 минутах, Калитники в 4 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Новорогожская улица, 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается квартира с отличной планировкой в монолитном доме. Две изолированные комнаты. Балкон и лоджия застеклены.
+Гардеробная.
+Дом 2003 года постройки, монолитный, работает консьерж, чистый подъезд, 2 грузовых и 2 пассажирских лифта, порядочные и спокойные соседи.
+Просторный отдельный тамбур на 2 квартиры.
+Развитая инфраструктура в районе, во дворе элитная школа Эрудит, рядом Дворец детского спорта и Центральный Ледовый дворец. Также в шаговой доступности детская и взрослая поликлиники, школы, Калитниковский пруд, продуктовый рынок Рогожские ряды, сетевые магазины.
+Транспортная доступность:- 11мин. пешком до ст. метро Римская/Площадь Ильича, 4 мин. До выезда на ТТК. Один собственник. Приватизация 2005 года. Легкая альтернатива.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409529/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 76.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Беговая в 6 минутах, Тестовская в 7 минутах, Фили в 8 минутах, Тестовская в 42 минутах, Беговая в 50 минутах, Фили в 62 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Шелепихинская набережная, 42к3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продаётся квартира в ЖК Freedom на 4м этаже, окна во внутренний двор и набережную. 
+Большое количество окон позволяет реализовать разные варианты планировок, внутренний двор с отличной игровой зоной подойдёт семьям с детьми.
+Прекрасная входная группа.
+Прямая продажа от собственника.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409390/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 57.1м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Бескудниково в 4 минутах, Ховрино в 4 минутах, Моссельмаш в 5 минутах, Бескудниково в 28 минутах, Моссельмаш в 29 минутах, Ховрино в 29 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, улица Софьи Ковалевской, 2А</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12600000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свободная продажа  3-х комнатной квартиры с изолированными комнатами . Дом находится в зелёном районе САО . В следующем году году запланировано открытие новой станции метро 800-летия Москвы, до которой всего пять минут пешком. Детские сады , школы находятся рядом с домом.  Парковая зона с двумя прудами находятся рядом с домом. Квартира находится в собственности у двух взрослых людей . Полная стоимость в договоре . Квартире требуется ремонт. Оперативный показ квартиры.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409387/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 67.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Беговая в 14 минутах, Москва (Белорусский вокзал) в 3 минутах, Беговая в 6 минутах, Москва (Савёловский вокзал) в 11 минутах, Москва (Белорусский вокзал) в 23 минутах, Москва (Савёловский вокзал) в 36 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Беговая улица, 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27200000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Трехкомнатная квартира,после капитального ремонта . Замена всех коммуникаций произведена. Комнаты правильной формы. В каждой комнате кондиционеры. Просторная гардеробная с зеркалом. Достаточное количество шкафов.Ванная комната с окном . В кухне есть вся необходимая встроенная техника. Интернет заведён в квартиру. Два балкона панорамного остекления. В квартире установлены тройные стеклопакеты -идеальная тишина. Чистый подъезд после капитального ремонта. Удобная транспортная доступность в любую точку Москвы. Показы в любое время !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409372/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 63.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Кунцево I в 3 минутах, Фили в 6 минутах, Москва-Сортировочная в 10 минутах, Кунцево I в 32 минутах, Москва-Сортировочная в 39 минутах, Фили в 41 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Кастанаевская улица, 44Ак2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24950000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Уютная, просторная квартира в новом монолитном доме комфорт класса! 
+Окна выходят на две стороны, в тихий двор. Высокий этаж дает восхитительный вид в обе стороны дома: на пруд и Москва-Сити. 
+Просторная кухня с выходом на балкон.  
+Полы на кухне и в коридоре плитка, в комнатах светлых оттенков ламинат, обои под покраску. В большой прихожей просторное место для шкафа. Минимальными усилиями после въезда можно создать свой собственный неповторимый дизайн и уют. 
+В квартире 2 туалетных комнаты: один совмещённый, другой можно использовать как второй санузел или переделать в кладовую темную комнату увеличив места хранения. Ванная комната и туалет в плитке.
+Один взрослый собственник, свободная продажа, полная стоимость в договоре. Быстрый выход на сделку. 
+В квартире нет зарегистрированных. Подходит под ипотеку. 
+Развитая инфраструктура; рядом Ашан, Сбербанк, Пятерочка, Перекресток, Вкус Вилл. 
+В 5 минутах ходьбы Мазиловский пруд  прекрасное место для отдыха, рядом Филевский парк с Москвой рекой и яблоневый сад - для прогулок на природе и утренних пробежек! 
+В пешей доступности три станции метро до каждой из которых 4-10 минут.
+Закрытый просторный двор с детской площадкой.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409334/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 34.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Электрозаводская в 19 минутах, Электрозаводская в 4 минутах, Сортировочная в 6 минутах, Новая в 8 минутах, Сортировочная в 40 минутах, Новая в 55 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Щербаковская улица, 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Квартира однокомнатная , свежий ремонт, отличное расположение дома . Метро  рядом. Один собственник, оперативный выход на сделку, свободная продажа.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409308/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 39.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Петровско-Разумовское в 8 минутах, Окружная в 8 минутах, Петровско-Разумовское в 1 минутах, Окружная в 2 минутах, НАТИ в 20 минутах, НАТИ в 4 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, 3-й Нижнелихоборский проезд, 8А</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вариант, хороший во всех отношениях - наша однокомнатная квартира! Она расположена на 1 высоком этаже 8-этажного кирпичного дома 1963 года постройки. И именно расположение на первом этаже является её преимуществом: квартира имеет увеличенную площадь, 38м2. Кухня 9м2, что понравится многим хозяйкам. Комната 17,3м3, и просторный коридор, 10м2, что позволит без проблем расположить любые системы хранения вещей. Совмещённый санузел в плитке, большая угловая ванна. В квартире имеется кладовка, сейчас там установлена стиральная машина. Сам дом очень удачно расположен: рядом с Дмитровским шоссе, но во дворе, защищённый от шума и пыли. Вся инфраструктура рядом: школа и садик во дворе, всё магазины в 5-минутной шаговой доступности. Метро и МЦД Окружная в 4 минутах ходьбы от дома. Один взрослый собственник, приватизация 2021 года, полная стоимость в договоре, альтернатива, но возможен выход как свободная при согласовании. Звоните, уважаемые коллеги и клиенты! Оперативный показ и быстрый выход на сделку гарантируем!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409290/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 38.4м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, поселение Десёновское, 6-я Нововатутинская улица, 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8200000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продажа однокомнатной квартиры ! Косметический ремонт, никто не проживает. Оперативный выход на сделку, один собственник, свободная продажа.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409271/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 44.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Долгопрудная в 14 минутах, Долгопрудная в 4 минутах, Водники в 11 минутах, Новодачная в 11 минутах, Водники в 27 минутах, Новодачная в 36 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Долгопрудная аллея, 15к2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11500000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>В современном благоустроенном ЖК продается теплая, светлая однокомнатная квартира без перепланировок , без залогов и обременений.  Удобная планировка - большая комната -22 кв. м, просторная кухня - 11.5 кв.м с выходом на  застекленную лоджию, большая ванна, в которой есть место для мебели и стиральной машины.  Замечательный вид из окон на парк.
+Удобная транспортная доступность - 10 мин. пешком от ст. МЦД Долгопрудная. Район с развитой инфраструктурой : два детских сада, соременная новая школа, магазины, аптеки, кафе, пекарня, салоны красоты ... и хорошей экологией. Дом расположен рядом с парком Долгие пруды, озером и зоной отдыха, 
+Два взрослых собственника, первичные документы, юридически свободна, никто не прописан, полная стоимость в договоре. Альтернатива. Возможна ипотека.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409211/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 45.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Щербинка в 19 минутах, Битца в 20 минутах, Красный Строитель в 21 минутах, Щербинка в 129 минутах, Красный Строитель в 138 минутах, Битца в 140 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Москва, посёлок Коммунарка, улица Сосенский Стан, 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10990000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ШИКАРНОЕ ПРЕДЛОЖЕНИЕ!!! СВОБОДНАЯ ПРОДАЖА!!! Продается уютная, теплая, однокомнатная квартира! Общая площадь 45 кв.м.  Комната 24.4 кв.м, кухня 12.5. кв.м. Квартира полностью укомплектована и оборудована всей необходимой мебелью и бытовой техникой для комфортного проживания, по согласованию можно оставить практически все!!! Встроенный кухонный гарнитур,  необходимая бытовая техника. Можно сразу жить или сдавать в аренду! Документы готовы к сделке. Документы отличные - ДКП более 5 лет. Один взрослый собственник! Рядом школы, детские сады, магазины, пруды.  До метро 12 мин. пешком.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409205/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 37.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Лосиноостровская в 3 минутах, Лось в 4 минутах, Перловская в 12 минутах, Лосиноостровская в 24 минутах, Лось в 28 минутах, Перловская в 43 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Осташковский проезд, 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10500000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продаётся квартира ПОД РЕМОНТ ,самая удачная планировка,кухня правильной формы с выходим на лоджию ,дом 1980 года постройки ,в подъезде консьерж .Вид из окна на парк Торфяника с прудом .СВОБОДНАЯ ПРОДАЖА ,1 взрослый собственник,зарегистрированных нет ,в Собственности менее 3 лет ,договор дарения между супругами ,все будут на сделке .Показ оперативный .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409122/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 36.9м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Москва-Сортировочная в 11 минутах, Матвеевская в 11 минутах, Фили в 11 минутах, Москва-Сортировочная в 33 минутах, Матвеевская в 49 минутах, Фили в 61 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, улица Довженко, 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11200000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается 1-к квартира на 6-м этаже 9-ти этажного панельного дома. Общая площадь 36,9 кв.м, жилая 19,4 кв.м. Большая кухня позволяет установить и стиральную машину, просторная комната. Вместительный коридор. Данный объект позволяет покупателю сделать ремонт по своему вкусу. Жилой панельный дом по экспериментальному проекту советского архитектора Евгения Стамо и инженера Александра Маркелова. О нем ходят легенды, дом снимался в кино. Находясь в кольце этого дома появляется ощущение присутствия той старой Москвы, которую мы помним в фильмах "Курьер","Москва слезам не верит". В круглом доме на улице Довженко жил Савелий Крамаров. До метро Минская через парк минут 12 пешком, до метро Киевская 15 минут на автобусе. Рядом остановка автотранспорта. Магазин "Пятерочка", школа, детский сад. Чудесный вид из окна. Тихо, нет шума, загазованных дорог. Это место для отдыха после трудовых дней. Прямая продажа. Один взрослый собственник с 1993 года. Показ по договоренности. Звоните!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409117/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-комн. квартира, 38.3м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Щербинка в 20 минутах, Битца в 20 минутах, Красный Строитель в 22 минутах, Щербинка в 97 минутах, Красный Строитель в 147 минутах, Битца в 148 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Москва, посёлок Коммунарка, улица Потаповская Роща, 16к2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10000000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается шикарная однокомнатная квартира в ЖК комфорт класса загородного типа Бутовские Аллеи на 2м этаже из 3х, но есть еще техэтаж. Оборудована всем необходимым заходи и живи, идеальный вариант для молодой семьи или для сдачи в аренду.
+В квартире выполнен современный ремонт с использованием качественных материалов и соблюдении технологий. Одна изолированная комната с окном эркером, диван, шкаф, телевизор. Большая кухня с мебелью, встроенной техникой - духовой шкаф, варочная панель, посудомойка, холодильник, обеденный стол и стулья. Застекленная лоджия с компьютерным столом. Отдельная гардеробная. Просторный совмещенный санузел оборудован качественной сантехникой и стиральной машиной. Большая прихожая с кондиционером на всю квартиру. Все полы кроме комнаты в керамограните с подогревом (даже лоджия). Стены выведены и покрашены (лекго поменять цвет на ваш вкус).
+В доме ухоженный подъезд с видеонаблюдением. 
+Это потрясающее место для комфортной жизни, во дворе детская и спортивная площадки, прогулочные зоны, рядом лесной массив Белкин лес. ЖК изолирован от соседних многоэтажек и поэтому в комплексе очень тихо и ощущение что вы за городом. 
+В 2023 году откроется станция метро Потапово, от дома до метро пару минут пешком! Удобный паркинг - всегда есть свободные места.
+Развитая инфраструктура, гипермаркет Глобус в шаговой доступности.
+Оперативный показ. Ипотека приветствуется</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409084/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 52.2м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Трикотажная в 5 минутах, Тушино в 9 минутах, Химки в 11 минутах, Трикотажная в 45 минутах, Тушино в 65 минутах, Химки в 80 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, улица Вилиса Лациса, 39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16300000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается 2-комнатная квартира в панельном доме серии П-43/16.
+Квартира подготовлена для ремонта - снято все до бетона. 
+Установлены новые стеклопакеты, отремонтированы туалет и ванная, новая сантехника.
+Развитая инфраструктура района Северное Тушино, детский сад, за ним школа, далее - МФТИ, напротив дома Алёшкинский лес, 5 минут пешком до магазина Пятерочка, 10 минут пешком до бассейна.
+Метро Планерная 5 минут транспортом.
+Быстрый выход на сделку. Свободная продажа.
+Один взрослый собственник. Юридически и физически свободна.
+Полная стоимость в ДКП.
+Готов полный пакет документов.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409059/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 39.1м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Москва (Казанский вокзал) в 4 минутах, Москва (Курский вокзал) в 5 минутах, Москва (Ярославский вокзал) в 10 минутах, Москва (Казанский вокзал) в 22 минутах, Москва (Курский вокзал) в 25 минутах, Москва (Ярославский вокзал) в 29 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Бауманская улица, 58А</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14500000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вашему вниманию предлагается двухкомнатная квартира с изолированными комнатами в доме после капитального ремона, с новыми "говорящими" лифтами. Зеленый уютный двор с детской площадкой. В пяти минутах ходьбы от дома метро, МГТУ им. Н. Э. Баумана, сбербанк,  поликлиника,  школа, детский сад, магазины. В районе все необходимое для комфортного проживания есть. Квартира без евроремонта, но чистенькая и аккуратная. Приличные соседи. Один взрослый собственник. Альтернатива реально подобрана.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278409047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 94.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Химки в 7 минутах, Левобережная в 13 минутах, Планерная в 17 минутах, Химки в 56 минутах, Планерная в 70 минутах, Левобережная в 74 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Ландышевая улица, 12к1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23200000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вашему вниманию представляется просторная квартира в ЖК Усадьба Куркино 
+Тихий зеленый район, вся социально-бытовая инфраструктура в пешей доступности 
+В квартире:
+- евроремонт;
+- просторные холлы;
+- 2 спальни: 18 и 13 кв.м.;
+- гардеробная;
+- кухня- гостиная 32 кв.м.;
+- 2 санузла;
+- кабинет 6.2 кв.м.;
+- приточная вентиляция;
+- кондиционирование;
+- окна выходят на Юго-Восточную и Северо-Западную стороны.
+О комплексе:	
+- огороженная территория;			
+- видеонаблюдение, патрулирование охраны;						
+- зона отдыха с детскими и спортивными площадками;	
+- подземный паркинг;
+- медицинский центр;
+- салон красоты;
+- частный английский детский сад;
+- клуб для детей и подростков;
+- продуктовый магазин.	
+Местоположение и инфраструктура:
+ -в пешей доступности остановки наземного транспорта до метро Сходненская, Пятницкое шоссе Речной вокзал 20 мину и ж/д станции Химки 10 минут;
+- до аэропорта Шереметьево 20 минут; 
+- общеобразовательные учреждения, поликлиники, супермаркеты, рестораны, кафе, фитнес-клубы;
+- Горнолыжная школа - Столица 500 метров;
+- ТРЦ Мега Химки;
+- парк Долина реки Сходни, парк Дубрава;
+- транспортная доступность; удобный выезд на Ленинградское шоссе, Новокуркинское шоссе, Пятницкое шоссе и МКАД.		
+  Звоните, будем рады сотрудничеству!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408877/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 84.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Нижние Котлы в 4 минутах, Коломенское в 7 минутах, Чертаново в 9 минутах, Нижние Котлы в 22 минутах, Коломенское в 47 минутах, Чертаново в 78 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Нагорная улица, 18к1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21500000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается 3-х комнатная просторная  квартира с изолированными комнатами на втором этаже в кирпичном доме. Развитая инфраструктура района: школы, детские сады, площадки, магазины, парковая зона. Придомовая территория благоустроена: детские и спортивные площадки, баскетбольная площадка, тренажеры. В квартире выполнен качественный ремонт. 
+ Самая большая Комната 21 кв м - спальня ( широкая 2-х метровая в ширину кровать, шкаф-купе, кондиционер ); 
+Две одинаковые по 16.5 кв м комнаты
+Одна из них спальня - двухместная кровать, шкаф-купе;
+Вторая Комната-гостиная-студия (диван, горка для посуды, два кресла, кондиционер);
+Кухня 9 кв м, оснащена итальянской мебелью Верона с патиной цвета (слоновая кость),стол обеденный дерево, массив, стулья-кресла(объединена с одной из комнат 16,5) 
+Туалет - душевая кабина, беде, унитаз, умывальник, зеркало, стеклянный шкаф, стиральная машина, Газовая Колонка Бош, стены и пол плитка)
+В коридоре встроенный шкаф при входе и хозяйственный шкаф рядом с туалетом
+Во всех комнатах люстры чешские, хрустальные
+Окна пластиковые немецкие
+Пол- ламинат лежит на дубовом паркете
+Кухня, туалет - пол плитка
+Потолки натяжные, в коридоре и туалете- наборные
+Стены хороший свежий ремонт
+2-й этаж 5-ти этажного дома, без лифта и мусоропровода
+Двор зеленый 
+Окно из самой большой комнаты выходит во двор дома
+Три окна выходят во двор с другой стороны ( дом буквой г, поэтому обе стороны у нас во дворе)
+На первом этаже, в подъезде расположены кладовые комнаты, которые можно купить дополнительно для хранения крупных вещей(чемоданы, стремянки, ёлки и елочные игрушки и тд)
+Во дворе:
+Детская площадка
+Баскетбольная площадка
+Тренажеры уличные
+Недалеко прогулочная зона у оврага, с несколькими барбекю, детской площадкой, тренировочной площадкой для собак
+В 5 мин езды горнолыжный спуск курорт Кант
+Метро 5 мин на машине, 15 мин пешком станция Нагорная
+Удобный проезд на машине, на автобусах на ул.Профсоюзная, Метро Академическая, Профсоюзная, Нагорная
+Выезд на третье кольцо с двух сторон 10-15 мин (Севастопольский проспект и Варшавской шоссе, Б. Тульская улица) 
+В 5 мин езды Торговые центры Капитолий гипермаркет Ашан, 
+РИО, гипермаркет Ок
+ЗВОНИТЬ НА ВОТСАП!!!
+Торг уместен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408333/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 54.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Сколково в 10 минутах, Очаково I в 11 минутах, Солнечная в 11 минутах, Очаково I в 42 минутах, Сколково в 50 минутах, Солнечная в 79 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, улица Академика Анохина, 30к2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17500000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-х комнатная квартира с ремонтом. Итальянская кухня, евроремонт. Приходите, все увидите сами, вам понравится.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408179/</x:t>
   </x:si>
   <x:si>
     <x:t>2-комн. квартира, 53.0м²</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Аэропорт в 10 минутах, Аэропорт Внуково в 11 минутах, Мичуринец в 18 минутах, Аэропорт Внуково в 74 минутах, Мичуринец в 83 минутах, Аэропорт в 97 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Московский, улица Лаптева, 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11400000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продается светлая, двухкомнатная квартира на высоком первом этаже. Квартира чистая, свежие обои на полу уложен ламинат. Две смежные комнаты по 14 и 16 кв.м., кухня 12 кв.м., совмещенный санузел 6 кв.м. и просторная прихожая. Район с развитой инфраструктурой, школа во дворе ( дорогу переходить детям не надо) . Полная стоимость в договоре, свободная продажа, один взрослый собственник, никто не прописан, обременений нет, подходит под любую ипотеку.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278381087/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 75.26м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Плющево в 12 минутах, Плющево в 2 минутах, Вешняки в 3 минутах, Чухлинка в 17 минутах, Вешняки в 23 минутах, Чухлинка в 26 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, улица Михайлова, 30Ак2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16532966₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продаётся 3-комн. квартира площадью 75,26 кв.м на 5 этаже 33 этажного дома (Корпус 1, Секция 2) проекта ПИК "Михайловский парк". Светлый просторный подъезд на уровне земли, функциональная планировка, большие окна, c отделкой.
-"Михайловский парк" распложен на юго-востоке Москвы, в 10 мин. ходьбы до метро "Окская" и в 15 мин. пешком до метро "Рязанский проспект". На 8,7 га общей площади жилого района появится шесть корпусов переменной этажности (13-33 этажа), два детских сада (по 150 мест каждый) и подземные паркинги. На первых этажах домов разместятся квартиры, магазины и предприятия сферы услуг, в подземной части  индивидуальные кладовые. Просторные подъезды с высокими потолками и витражным остеклением имеют два входа: со двора и улицы. Входы расположены на уровне земли, без ступеней и пандусов. Подъезды выполнены в современном дизайне, лифты скоростные и бесшумные. В свободных от автомобилей дворах-парках будут детские площадки и места для отдыха. Комплекс возводится в благоустроенном районе. В пешей доступности  детские сады, школы, поликлиники, магазины, фитнес-клуб, ТЦ "Рязанский". До большого Кусковского лесопарка со старинной усадьбой "Кусково" и прудом  20 минут пешком по прямой. (Застройщик ООО "Скайтауер Груп")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380985/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 30.5м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Тушино в 9 минутах, Тушино в 1 минутах, Трикотажная в 4 минутах, Покровское-Стрешнево в 7 минутах, Трикотажная в 29 минутах, Покровское-Стрешнево в 43 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Волоколамский проезд, 4к2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9399000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Квартира в доме с очень удобным расположением, в 1 минуте от метро Тушинская. 
-В подъезде сделан косметический ремонт, чисто и аккуратно. Квартира тёплая и уютная, с приятными тихими соседями. Вид из окна на зелёный двор. 
-Дом под реновацию, с перспективой новой квартиры в современном благоустроенном ЖК.
-1 взрослый собственник, владеет с 2002 года. Полная стоимость в договоре. Обременений нет.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380978/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 74.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Химки в 8 минутах, Левобережная в 13 минутах, Планерная в 14 минутах, Планерная в 53 минутах, Химки в 58 минутах, Левобережная в 79 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Соколово-Мещерская улица, 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продаётся 2 - комнатная квартира в Куркино.Окна выходят в тихий двор. Вся инфраструктура в шаговой доступности.Всегда есть парковочные места.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380951/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 100.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Беговая в 7 минутах, Фили в 8 минутах, Тестовская в 9 минутах, Тестовская в 25 минутах, Фили в 38 минутах, Беговая в 43 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Шелепихинская набережная, 34к2зд3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продаю 3х комнатную квартиру в самом популярном в этом районе ЖК бизнес класса "Сердце Столицы". На закрытой территории комплекса сделано все для обеспечения приватности проживания, безопасности и комфорта.
-Квартира без отделки, что дает прекрасную возможность создать индивидуальное планировочное решение и воплотить любые свои желания. 
-При покупке этой квартиры вам не придется ломать голову над тем, как вписать новое пространство в свой жизненный сценарий. У вас уже будет продуманное эстетичное функциональное решение от лучшей студии Москвы Letto Design. 
-В подарок мы разработаем для Вас индивидуальный дизайн проект вашей будущей квартиры, придумаем смелые решения, выдерживая баланс между стилем и комфортом для проживания, создадим благоприятную атмосферу, а так же решим последующие задачи связанные с реализаций проекта. 
-Так как Letto Design  много лет специализируется на  работе с объектами бизнес класса. Создание комфортного и уютного пространства с нуля  интересная задача, которая требует многих навыков и знаний. Команда Letto Design справляется с этой задачей на отлично! 
-ВОЗМОЖЕН АРГУМЕНТИРОВАННЫЙ ТОРГ РЕАЛЬНОМУ ПОКУПАТЕЛЮ!
-ЗВОНИТЕ НА  ВСЕ ВОПРОСЫ ОТВЕЧУ С УДОВОЛЬСТВИЕМ!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380921/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 44.7м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Фили в 19 минутах, Фили в 3 минутах, Москва-Сортировочная в 7 минутах, Тестовская в 7 минутах, Москва-Сортировочная в 28 минутах, Тестовская в 42 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Филёвский Парк район, Кастанаевская ул., д.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 30694578 
-Чистая, уютная двухкомнатная квартира в  одном из лучших тихий районов Москвы. В пешей доступности магазины, торговые и развлекательные центры, детский сад/школа, секции, парковая зона и парк Победы. 10 мин езды до центра и до мкада. Свободная продажа.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380916/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 30247337 
-Уютная, чистая двухкомнатная квартира в 2х минутах ходьбы от метро. В пешей доступности продуктовые магазины, рынок, торговые и развлекательные центры, фитнесклубы, детский сад, школа, секции, парковая зона и парк победы. 10 минут езды до центра и до мкад. Свободная продажа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380866/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 59.35м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Планерная в 5 минутах, Новоподрезково в 15 минутах, Подрезково в 16 минутах, Планерная в 27 минутах, Новоподрезково в 57 минутах, Подрезково в 78 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, жилой комплекс Молжаниново, к2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12997156₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Семейная ипотека - 0,1%
-Не упустите выгоду, звоните сейчас, чтобы узнать все детали и сделать предварительные расчёты. 
-Продается 2-комн. квартира с отделкой. Квартира расположена на 10 этаже 13 этажного монолитного дома (Корпус 2, Секция 3) в ЖК "Молжаниново" от группы "Самолет". 
-Квартиру можно приобрести с кухонной мебелью и техникой. 
- "Молжаниново" - новый жилой комплекс от группы "Самолет" в 10 км от МКАД. Он расположен на севере Москвы, недалеко от Ленинградского шоссе. Это комфортные монолитные дома высотой 11-17 этажей с оригинальными комбинированными фасадами и приватными зелеными дворами. 
-Дизайн проекта разрабатывало архитектурного бюро Gren.
-Благодаря удачному расположению комплекса жители "Молжаниново" смогут быстро добраться до Москвы и близлежащих городов области: Химок, Зеленограда, Долгопрудного. Путь до автобусных остановок займет 5 минут пешком. Отсюда можно доехать до станций метро "Планерная", "Водный стадион" и "Речнои вокзал".
-Также за 5 минут можно дойти до ж/д станции "Новоподрезково", которая станет частью МЦД-3. 
-Неподалеку расположен Химкинский лес - один из самых больших заказников Московской области. За 9 минут вы можете доехать до парка "Подрезково", за 15 - до Парка Культуры и отдыха им. Льва Толстого. 
-По территории жилого комплекса протекает Молжаниновский ручей, который впадает в одноименный пруд - не придется уходить далеко от дома, чтобы побыть на природе. 
-Специально для жителей мы построим 8 детских садов и 4 школы. На первых этажах жилых домов откроются магазины и кафе. До торговых центров "Мега-Химки" и "Леруа мерлен" вы сможете доехать на автомобиле за 5 минут.
-Входы во всех домах - на уровне земли, без ступеней и других препятствий. Подъезды сквозные: можно быстро выйти из дома и во двор, и на улицу.
-Во всех подъездах будут работать два лифта - грузовой и пассажирский. В доме предусмотрен консьерж-сервис. Обустроены колясочные и места для хранения велосипедов. На -1 этаже появятся индивидуальные кладовые, где вы можете хранить свои вещи, инвентарь и технику.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380864/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 59.11м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13439364₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>На весь срок семейной ипотеки ставка - 0,1%
-Позвоните, чтобы узнать все детали и приобрести недвижимость выгодно. 
-Продается 3-комн. квартира с отделкой. Квартира расположена на 10 этаже 13 этажного монолитного дома (Корпус 2, Секция 4) в ЖК "Молжаниново" от группы "Самолет". 
-Квартиру можно приобрести с кухонной мебелью и техникой. 
- "Молжаниново" - новый жилой комплекс от группы "Самолет" в 10 км от МКАД. Он расположен на севере Москвы, недалеко от Ленинградского шоссе. Это комфортные монолитные дома высотой 11-17 этажей с оригинальными комбинированными фасадами и приватными зелеными дворами. 
-Дизайн проекта разрабатывало архитектурного бюро Gren.
-Благодаря удачному расположению комплекса жители "Молжаниново" смогут быстро добраться до Москвы и близлежащих городов области: Химок, Зеленограда, Долгопрудного. Путь до автобусных остановок займет 5 минут пешком. Отсюда можно доехать до станций метро "Планерная", "Водный стадион" и "Речнои вокзал".
-Также за 5 минут можно дойти до ж/д станции "Новоподрезково", которая станет частью МЦД-3. 
-Неподалеку расположен Химкинский лес - один из самых больших заказников Московской области. За 9 минут вы можете доехать до парка "Подрезково", за 15 - до Парка Культуры и отдыха им. Льва Толстого. 
-По территории жилого комплекса протекает Молжаниновский ручей, который впадает в одноименный пруд - не придется уходить далеко от дома, чтобы побыть на природе. 
-Специально для жителей мы построим 8 детских садов и 4 школы. На первых этажах жилых домов откроются магазины и кафе. До торговых центров "Мега-Химки" и "Леруа мерлен" вы сможете доехать на автомобиле за 5 минут.
-Входы во всех домах - на уровне земли, без ступеней и других препятствий. Подъезды сквозные: можно быстро выйти из дома и во двор, и на улицу.
-Во всех подъездах будут работать два лифта - грузовой и пассажирский. В доме предусмотрен консьерж-сервис. Обустроены колясочные и места для хранения велосипедов. На -1 этаже появятся индивидуальные кладовые, где вы можете хранить свои вещи, инвентарь и технику.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380846/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 45.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Текстильщики в 3 минутах, Калитники в 5 минутах, Москва Товарная (Курская) в 7 минутах, Калитники в 33 минутах, Текстильщики в 37 минутах, Москва Товарная (Курская) в 49 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Волгоградский проспект, 32/3к3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14760000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОМ СДАН! Продается ВИДОВАЯ ЕВРО-ДВУШКА (не апартамент!) в новом Жилом комплексе бизнес-класса МЕТРОПОЛИЯ.
-Новая башня (Москва) в комплексе бизнес-класса, состоящем из 11 корпусов, в центре города, внутри ТТК, всего в 2 км от Садового кольца. Удобное транспортное расположение комплекса позволяет быстро добраться до центра за 15 минут как на метро (рядом станции метро Волгоградский проспект, Текстильщики, Дубровка, МЦК Угрешская), так и на автомобиле до ТТК или Садового кольца, 10 минут и Вы в центре города. При этом вся необходимая инфраструктура предусмотрена внутри комплекса, детские сады и школы, магазины, спортивные клубы и кафе. 
-Окна в тихий закрытый "двор без машин", въезд для жителей под шлагбаум, подземный паркинг. Детские и спортивные площадки на территории, благоустроенные красивые дворы.
-Квартира без отделки.
-Продажа по договору купли-продажи, ПОЛНАЯ СТОИМОСТЬ В ДОГОВОРЕ. Залогов и обременений нет. Подходит под ипотеку. Помощь в получении ипотечного кредита.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380844/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 48.8м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОМ СДАН! Продается однокомнатная квартира ЕВРО-ПЛАНИРОВКИ (не апартамент!) в новом Жилом комплексе бизнес-класса МЕТРОПОЛИЯ
-Новая башня (Москва) в комплексе бизнес-класса, состоящем из 11 корпусов, в центре города, внутри ТТК, всего в 2 км от Садового кольца. Удобное транспортное расположение комплекса позволяет быстро добраться до центра за 15 минут как на метро (рядом станции метро Волгоградский проспект, Текстильщики, Дубровка, МЦК Угрешская), так и на автомобиле до ТТК или Садового кольца, 10 минут и Вы в центре города. При этом вся необходимая инфраструктура предусмотрена внутри комплекса, детские сады и школы, магазины, спортивные клубы и кафе. 
-Окна в тихий закрытый "двор без машин", въезд для жителей под шлагбаум, подземный паркинг. Детские и спортивные площадки на территории, благоустроенные красивые дворы.
-Квартира без отделки.
-Продажа по договору купли-продажи, ПОЛНАЯ СТОИМОСТЬ В ДОГОВОРЕ. Залогов и обременений нет. Подходит под ипотеку. Помощь в получении ипотечного кредита.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380793/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 29.7м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Ленинградская в 6 минутах, Моссельмаш в 15 минутах, Ховрино в 16 минутах, Моссельмаш в 42 минутах, Ховрино в 45 минутах, Ленинградская в 50 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Россия, Москва, Смольная улица, 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9700000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>К продаже представлена уютная, светлая квартира! В квартире выполнена удобная перепланировка (всё узаконено), сделан ремонт, квартира готова к проживанию. Окна выходят в тихий, зелёный двор. Дом находится в тихом обжитом районе Москвы. Вся инфраструктура в шаговой доступности (школы, сады, поликлиники, хозяйственные и продуктовые магазины, ТЦ, банки, почта и т.п), также в шаговой доступности красивый и ухоженный парк с прудами.
-Очень удобная транспортная доступность, 10мин пешком до м Водный стадион, так же за 15мин можно дойти до МЦК, откуда можно доехать до любой нужной ветки.
-Идеальные документы: 1 взрослый собственник, более 5ти лет (полная стоимость в договоре), прописанных нет, свободная продажа, БЫСТРЫЙ ВЫХОД НА СДЕЛКУ!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380783/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 43.9м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Рабочий Посёлок в 2 минутах, Сетунь в 3 минутах, Кунцево I в 4 минутах, Рабочий Посёлок в 22 минутах, Кунцево I в 24 минутах, Сетунь в 35 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Можайский район, Можайское ш., д.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33061112 
-Продается 2-х комнатная квартира, общей площадью 43,5 кв.м. на первом этаже 5-ти этажного кирпичного дома под реновацию (3-я очередь). Дом располагается перпендикулярно Можайскому шоссе, окна на противоположную от подъезда сторону, Комнаты смежные 9 и 17 кв.м., кухня 6 кв.м., санузел совмещенный, квартира на сигнализации, кондиционеры, кухонный гарнитур встроенный, перепланировок в квартире нет. Приватизация от 2010 года, два взрослых собственника, альтернатива на большую площадь</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380779/</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Щербинка в 6 минутах, Силикатная в 10 минутах, Подольск в 15 минутах, Щербинка в 27 минутах, Силикатная в 69 минутах, Подольск в 133 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Щербинка район, Щербинка г., Щербинка, Барышевская Роща ул., д.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8600000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33010630 
-Продаётся 1-на  комнатная квартира общей площадью 40 кв. м в Новой Москве Щербинка. Дом кирпичный, кухня 9,3 кв. м, с/узел совмещенный.
-Инфраструктура района: несколько детских садов, детских площадок, школ , магазинов-всё в шаговой доступности.
-Транспортная доступность: до МЦД Остафьево, Щербинка- 30 мин. пешком,  до м. Царицыно- 40 мин. на транспорте.
-Одобрим покупателя в банках-партнёрах БЕСПЛАТНО!
-Покупателю Правовой сертификат БЕСПЛАТНО!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380772/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 125.4м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Гражданская в 1 минутах, Гражданская в 11 минутах, Дмитровская в 14 минутах, Тимирязевская в 19 минутах, Дмитровская в 3 минутах, Тимирязевская в 6 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Савёловский район, Соломенной Сторожки проезд., д.5, к.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33047956 
-Продаётся уникальная квартира в монолитно-кирпичном доме бизнес-класса.
-Кухня-гостиная (11,1+23,5) кв.м., со встроенной кухней, оборудована техникой, столовая зона гармонично вписывается в планировку 
-Большой холл 26,7 при входе, есть гостевой санузел.
-Комната 23.7 кв.м., которую можно использовать как кабинет, оформлена в спокойных тонах.
-Гардеробная 6.2 кв.м.
-Спальня 18.3 кв.м.
-Большой санузел 5.1 кв.м., с сауной.
-Пол - паркет, в кухне-гостиной плитка. Многоуровневый потолок, приточно-вытяжная вентиляция, кондиционеры. Имеется лоджия  4,3 кв.м.
-Все перепланировки, включая сауну, согласованы в установленном законом порядке, соответствующая документация имеется.
-Квартира расположена в доме бизнес-класса с собственной закрытой территорией, круглосуточной охраной и консьержем, а подземный паркинг имеет собственную автомойку и шиномонтаж с возможностью сезонного хранения колес. В собственности также 1 машиноместо.
-Район тихий и очень зеленый, с развитой инфраструктурой: поблизости шикарный Тимирязевский лесопарк и парк Дубки, множество государственных и частных детских садов и школ.
-Прекрасная транспортная доступность: в пешей доступности 2 станции метро и 2 ж/д станции, 15 минут до центра Москвы с учетом пробок.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380771/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-комн. квартира, 63.0м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Химки в 7 минутах, Левобережная в 8 минутах, Ховрино в 12 минутах, Левобережная в 30 минутах, Ховрино в 36 минутах, Химки в 45 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Левобережный район, Смольная ул., д.63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14500000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33060405 
-Трехкомнатная квартира рядом с метро!
-Предлагаем вашему вниманию уютную, светлую 3 комнатную квартиру (63 кв.м) с 2 спальнями(12 и 14 кв.м) и просторной гостиной(20 кв.м).
-Квартира распашонка на две стороны (запад-восток).
-Высокие потолки 2,7 м делают пространство больше. 
-В квартиры можно сделать перепланировку: 3 изолированные комнаты с гардеробной или 2 спальни с большой кухней  гостиной(14+6,5 кв.м) и гардеробной!
-Раздельный санузел. Есть лоджия. 2 пассажирских лифта. Видовой этаж.
-До метро Беломорская пешком 8 минут.
-Хорошая инфраструктура района для вас и ваших детей: 
-- в доме располагается магазин Верный и аптека; 
-- рядом взрослая и детская поликлиники; 
-- детский сад и школа 158(одна из лучших школ Левобережного района);
-- конная база ЦСКА и бассейн;
-- современная театральная студия Дети Райка для детей с 7 лет.
-Для прогулок и активного отдыха с семьей рядом Левобережный парк с пляжной зоной и смотровой площадкой.
-Выбирайте для своей семьи ЛУЧШЕЕ! Звоните!
-Полная стоимость в ДКП, альтернатива.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380759/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-комн. квартира, 32.66м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Электрозаводская в 11 минутах, Яуза в 16 минутах, Северянин в 22 минутах, Яуза в 70 минутах, Электрозаводская в 78 минутах, Северянин в 83 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Метрогородок район, Лосиноостровский парк</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9400000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 32992624 
-Продается прекрасная  1 -комн. квартира в 12-ти минутах ходьбы от метро Бульвар Рокоссовского.
-У дома замечательное расположение : в 6-ти минутах ходьбы расположен  Национальный парк "Лосиный остров" -крупнейший лесной массив в Москве и крупнейший среди лесов, расположенных в черте городов. Живописные места. Подмосковная тайга с густыми хвойными лесами ,разнообразие водоемов, красивая долина реки Яуза. Вы сможете каждый день сполна наслаждаться природой , дышать свежим воздухом .
-У квартиры "умная " планировка : при квадратуре 1 -комн. квартиры у Вас будет кухня-гостиная  и небольшая спальня. 
-Квартира выходит на юго-восток. Очень солнечная сторона. С ремонтом от застройщика.
-Квартира от Пик, переуступка. ЖК Лосиноостровский парк, Заселение до 30.04.2024 г.
-Развитая инфраструктура : школы. детские сады , фитнесс, поликлиники .стоматологии, салоны красоты.
-Быстрый выход на сделку.
-Поможем в оформлении ипотеки.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.cian.ru/sale/flat/278380739/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-комн. квартира, 41.5м²</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Москва (Рижский вокзал) в 6 минутах, Москва (Белорусский вокзал) в 6 минутах, Москва (Савёловский вокзал) в 9 минутах, Москва (Савёловский вокзал) в 32 минутах, Москва (Рижский вокзал) в 36 минутах, Москва (Белорусский вокзал) в 39 минутах, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Москва, Тверской район, Самотёчный 1-й пер., д.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19000000₽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арт. 33012741 
-Вашему вниманию компактная евро двушка (2кк) в центре столицы.
-В Квартире проведён косметический ремонт. 
-Все стены ровные, на полу линолеум.
-Спальня большая и уютная. Окна выходят на солнечную сторону. 
-Тк на этаже всего пара квартир, здесь всегда тихо и спокойно.
-Из спальни, как и из кухни-гостиной есть по выходу на большой застеклённый балкон.
-Здесь можно организовать как место Хранения, так и рабочий кабинет.
-В прихожей хватает места , чтобы оборудовать шкафы, а на Новый год ставить ёлку, летом хранить велосипед или самокат. 
-На кухне стоит новая современная бытовая техника. 
-Визуально пространство делиться на кухонную зону и зону отдыха.
-Дом новый, кирпичный. Есть грузовой лифт.
-В подъезде очень чисто и аккуратно, есть консьерж.
-Вход оборудован пандусом, что очень удобно для владельцев колясок
-Район очень зеленый, шаговая доступность до метро Достоевская и еще 2х станций.
-Рядом Марьина Роща и выезд на садовое кольцо. 
-Идеальное расположение, здесь тихо и спокойно, при этом в самом центре города.</x:t>
+    <x:t xml:space="preserve">Тимирязевская в 7 минутах, Дмитровская в 17 минутах, Дмитровская в 3 минутах, Гражданская в 5 минутах, Тимирязевская в 6 минутах, Гражданская в 24 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, улица Дубки, 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16900000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продается видовая двухкомнатная квартира под ремонт. Квартира физически и юридически свободна. Быстрый выход на сделку. Торг при осмотре.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408133/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 74.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Крюково в 12 минутах, Крюково в 2 минутах, Малино в 8 минутах, Алабушево в 9 минутах, Малино в 45 минутах, Алабушево в 48 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, Зеленоград, к1537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13900000₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Просторная трехкомнатная квартира с потрясающим видом на зеленый парк с прудом и детскими площадками в одном из самых экологически чистых районов Москвы ЗелАО- Зеленоград. 
+- Один взрослый собственник более 25 лет. Квартира без обременений.
+- Остается вся мебель и техника
+-Узаконенная перепланировка. Общая площадь- 74 кв.м. Комнаты 19+19+15 кв.м., кухня 10 кв.м, лоджия. 
+- Рядом с домом имеется благоустроенный парк с прудом, со спортивными и детскими площадками. Детская поликлиника- 50 метров. В районе много детских садов, школ, спортивных сооружений и фитнес-клубов. 
+- Хорошая транспортная доступность: автобусная остановка 50 м, станция Крюково- пешком 10 минут, откуда за 30 минут можно доехать до центра Москвы на скоростной электричке Ласточка. 
+- Можем дополнительно предоставить место в подземном паркинге в 5 мин. от дома</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408127/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-комн. квартира, 95.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Тестовская в 9 минутах, Тестовская в 2 минутах, Москва (Киевский вокзал) в 6 минутах, Фили в 6 минутах, Москва (Киевский вокзал) в 35 минутах, Фили в 45 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Москва, 1-й Красногвардейский проезд, 21с2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49999999₽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/7 в Москва-Сити.
+ОПЕРАТИВНЫЙ ПОКАЗ! 
+WE CAN SPEAK ENGLISH, ZHONG WEN! 
+Теперь Вы можете купить потрясающие дизайнерские апартаменты в башне ОКО! 
+Апартамент с потрясающими видами на Москва-реку, МГУ, Воробьевы горы, небоскребы Москва-Сити и Поклонную гору.
+Функциональная планировка: гостиная-кухня, спальня с собственным санузлом, гардеробная, холл, гостевой санузел, постирочная комната. 
+Апартамент полностью меблирован дизайнерской мебелью и укомплектован всей необходимой техникой.
+Башня ОКО - это: 
+- Круглосуточная система охраны и безопасности комплекса.
+- Доступ к комплексу: 24/7. 
+- Приятные респектабельные соседи. 
+- Прекрасная инфраструктура (ресепшн, лобби, подземная парковка, консьерж-сервис, клининг). 
+- Большой СПА-комплекс,
+- Фитнес-центр Encore,
+- Ресторанный комплекс 354 на 83-84 этажах (рестораны RUSKI и BIRDS).
+МЫ РАБОТАЕМ, ЧТОБЫ ВЫ НАСЛАЖДАЛИСЬ!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cian.ru/sale/flat/278408095/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-комн. квартира, 195.0м²</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Тестовская в 7 минутах, Тестовская в 2 минутах, Москва (Киевский вокзал) в 6 минутах, Фили в 6 минутах, Москва (Киевский вокзал) в 36 минутах, Фили в 43 минутах, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Россия, Москва, 1-й Красногвардейский проезд, 21с1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94900000₽</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1054,7 +1066,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>79652904360</x:v>
+        <x:v>79605716023</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>10</x:v>
@@ -1063,7 +1075,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>32.8</x:v>
+        <x:v>39.7</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
@@ -1080,7 +1092,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>79652904360</x:v>
+        <x:v>79688241288</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
@@ -1089,7 +1101,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>18</x:v>
@@ -1106,7 +1118,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>79653506105</x:v>
+        <x:v>79623677376</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
@@ -1115,7 +1127,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>61.8</x:v>
+        <x:v>38.6</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>24</x:v>
@@ -1132,7 +1144,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>79660623710</x:v>
+        <x:v>79652406963</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>28</x:v>
@@ -1141,12 +1153,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="H5" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
@@ -1158,7 +1170,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>79857322506</x:v>
+        <x:v>79151466672</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>34</x:v>
@@ -1167,12 +1179,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>67.1</x:v>
+        <x:v>42.4</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="H6" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
@@ -1184,7 +1196,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>79037640560</x:v>
+        <x:v>79857938494</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>40</x:v>
@@ -1193,192 +1205,192 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>48.1</x:v>
+        <x:v>38.9</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>79104314629</x:v>
+        <x:v>79623651250</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>79165361781</x:v>
+        <x:v>79623650784</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>79660533227</x:v>
+        <x:v>79623642655</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>57.1</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
         <x:v>60</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>79651368743</x:v>
+        <x:v>79104376319</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>69.5</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>79652906395</x:v>
+        <x:v>79623636727</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
         <x:v>72</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>74951348135</x:v>
+        <x:v>79855523853</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>75.26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>79168011727</x:v>
+        <x:v>79055750579</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>30.5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>84</x:v>
@@ -1392,71 +1404,68 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>79680469258</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
+        <x:v>79855523853</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="F15" s="0" t="n">
+        <x:v>38.4</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="H15" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="n">
+        <x:v>79057803042</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
-        <x:v>79852077433</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="s">
+      <x:c r="F16" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="H16" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="n">
+        <x:v>79660582994</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
-        <x:v>79623685211</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="F17" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="n">
-        <x:v>44.7</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
         <x:v>101</x:v>
@@ -1467,311 +1476,311 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>79623685211</x:v>
+        <x:v>79660642117</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>44.7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>74951346466</x:v>
+        <x:v>79660640669</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>59.35</x:v>
+        <x:v>36.9</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>74951346466</x:v>
+        <x:v>79099093639</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>59.11</x:v>
+        <x:v>38.3</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>79660472093</x:v>
+        <x:v>79645722405</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>52.2</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>79660472093</x:v>
+        <x:v>79660638658</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>48.8</x:v>
+        <x:v>39.1</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>79623646074</x:v>
+        <x:v>79660631657</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>29.7</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>79652393843</x:v>
+        <x:v>79660630356</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>43.9</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>79652393843</x:v>
+        <x:v>79660501566</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>79652256853</x:v>
+        <x:v>79660515113</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>125.4</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>79647811517</x:v>
+        <x:v>79660626801</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>79031232124</x:v>
+        <x:v>79031020410</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>32.66</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>79651234824</x:v>
+        <x:v>79031020410</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>41.5</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
